--- a/MoviesTop250.xlsx
+++ b/MoviesTop250.xlsx
@@ -41,7 +41,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -51,11 +51,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00BCEE68"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2CD5A"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,13 +99,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,7 +428,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>电影排行榜250 (2020-04-24 21:31:08)</t>
+          <t>电影排行榜250 (2020-04-24 23:14:33)</t>
         </is>
       </c>
       <c r="H1" s="2" t="n"/>
